--- a/Multicycle/Control_Word.xlsx
+++ b/Multicycle/Control_Word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Prabhu\Desktop\IITB\Semester 4\EE 309\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B2576-61F5-4222-95E4-A9F60D258DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFBA8F-64C8-4875-97A1-DFE73B29BFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2722B0CC-F256-4468-9B3F-01A9075368F1}"/>
   </bookViews>
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -327,11 +327,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +396,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3437EAA0-0D8F-408D-A63E-A012D9A4CBDB}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,6 +2749,160 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>0</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <v>1</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>1</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
